--- a/data/output/FV2304_FV2210/INVOIC/31010.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="268">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="268">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -942,6 +942,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U168" totalsRowShown="0">
+  <autoFilter ref="A1:U168"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +1261,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8630,5 +8663,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31010.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31010.xlsx
@@ -1391,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1414,6 +1414,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1422,6 +1425,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1862,7 +1868,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2198,7 +2204,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2378,7 +2384,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2566,7 +2572,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -2938,7 +2944,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3122,7 +3128,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3212,7 +3218,7 @@
         <v>249</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2"/>
@@ -3344,7 +3350,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3532,7 +3538,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4066,20 +4072,20 @@
       <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M49" s="5"/>
@@ -4097,25 +4103,25 @@
       <c r="A50" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M50" s="5"/>
@@ -4133,31 +4139,31 @@
       <c r="A51" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M51" s="5"/>
@@ -4175,33 +4181,33 @@
       <c r="A52" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M52" s="5"/>
@@ -4219,29 +4225,29 @@
       <c r="A53" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M53" s="5"/>
@@ -4269,25 +4275,25 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4303,27 +4309,27 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4339,33 +4345,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4381,33 +4387,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="V57" s="11" t="s">
+      <c r="V57" s="13" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4425,31 +4431,31 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="2" t="s">
@@ -4472,7 +4478,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4650,7 +4656,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5010,7 +5016,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5540,22 +5546,22 @@
       <c r="B81" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M81" s="5"/>
@@ -5573,25 +5579,25 @@
       <c r="A82" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8" t="s">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M82" s="5"/>
@@ -5609,31 +5615,31 @@
       <c r="A83" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8" t="s">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8" t="s">
+      <c r="H83" s="9"/>
+      <c r="I83" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="J83" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M83" s="5"/>
@@ -5651,33 +5657,33 @@
       <c r="A84" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8" t="s">
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L84" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M84" s="5"/>
@@ -5695,29 +5701,29 @@
       <c r="A85" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="J85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>260</v>
       </c>
       <c r="M85" s="5"/>
@@ -5745,25 +5751,25 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11" t="s">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="V86" s="11" t="s">
+      <c r="V86" s="13" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5781,27 +5787,27 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11" t="s">
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V87" s="11"/>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -5817,33 +5823,33 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11" t="s">
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11" t="s">
+      <c r="S88" s="13"/>
+      <c r="T88" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="U88" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V88" s="11"/>
+      <c r="U88" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V88" s="13"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
@@ -5859,33 +5865,33 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11" t="s">
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11" t="s">
+      <c r="S89" s="13"/>
+      <c r="T89" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="U89" s="11" t="s">
+      <c r="U89" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="V89" s="11" t="s">
+      <c r="V89" s="13" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5903,31 +5909,31 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U90" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V90" s="11"/>
+      <c r="U90" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V90" s="13"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="2" t="s">
@@ -5950,7 +5956,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6192,7 +6198,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6320,7 +6326,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6518,7 +6524,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -6762,7 +6768,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -6964,7 +6970,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7164,7 +7170,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7352,7 +7358,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7636,7 +7642,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N126" s="2"/>
@@ -7720,7 +7726,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -7910,7 +7916,7 @@
         <v>258</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8100,7 +8106,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8286,7 +8292,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8488,7 +8494,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -8676,7 +8682,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -8964,7 +8970,7 @@
         <v>258</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9094,23 +9100,23 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
       <c r="J157" s="6" t="s">
         <v>246</v>
       </c>
@@ -9120,20 +9126,20 @@
       <c r="L157" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M157" s="5" t="s">
+      <c r="M157" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N157" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O157" s="5" t="s">
+      <c r="O157" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
       <c r="U157" s="6" t="s">
         <v>267</v>
       </c>
@@ -9272,7 +9278,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -9422,7 +9428,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -9570,7 +9576,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N166" s="2"/>
